--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3847332.887213011</v>
+        <v>3841611.275245128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836242</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>291.6597759650967</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>313.402097250776</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.2505623824991</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>79.17336298218197</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>158.2240859585677</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.60866929162337</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155.8964992751922</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>1.332975795529264</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.24036028042102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>121.6444104449332</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>47.44691703576932</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.4496455835155</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>110.7115619691729</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>36.18491463503176</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.48834541485716</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>49.15840174393117</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971812</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534532</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.35310599831851</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>113.510364625082</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7255191337758</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>153.8796729742116</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>212.5409663466365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.30441174788252</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534533</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292646</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>115.7029751655805</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,10 +3717,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U43" t="n">
-        <v>101.8601463141005</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,16 +4191,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>104.7516088530979</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.800419524901</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.800419524901</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>759.5347209181505</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>759.5347209181505</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>348.5488161285429</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>558.825384592777</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>558.825384592777</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>558.825384592777</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>147.8394798031695</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>133.9160757417604</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.435818966735</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
         <v>99.59950625323012</v>
@@ -4758,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>598.0972475937699</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.946714969783</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.946714969783</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>1460.488316778686</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>2439.038619608515</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667297</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.0033510423848</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C13" t="n">
-        <v>343.0033510423848</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D13" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1551.953982825489</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.851115951133</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1262.851115951133</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>973.433945914172</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X13" t="n">
-        <v>745.4443950161547</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y13" t="n">
-        <v>524.6518158726245</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="14">
@@ -5263,13 +5263,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>617.4442264788933</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>448.5080435509864</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>298.3914041386506</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1844.513605529782</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1555.410738655425</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.643526557401</v>
+        <v>1300.726250449538</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.226356520441</v>
+        <v>1011.309080412578</v>
       </c>
       <c r="X16" t="n">
-        <v>838.2368056224234</v>
+        <v>783.3195295145603</v>
       </c>
       <c r="Y16" t="n">
-        <v>617.4442264788933</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2996.062531649192</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3876.027181978647</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.514648437706</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.514648437706</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>3309.39800902537</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>3161.484915442977</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4741.501303596457</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4741.501303596457</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>4741.501303596457</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>4452.3984367221</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>4197.713948516213</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>3908.296778479253</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>3680.307227581236</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.514648437706</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,34 +5849,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3592.822316837813</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3423.886133909906</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3273.76949449757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3273.76949449757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3126.87954699966</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2959.176710374379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2959.176710374379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816073</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941717</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>3820.81186773583</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W22" t="n">
-        <v>3820.81186773583</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X22" t="n">
-        <v>3592.822316837813</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y22" t="n">
-        <v>3592.822316837813</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2915.526830679739</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3795.491481009194</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,13 +6071,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.859557377715</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C25" t="n">
-        <v>656.9233744498081</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
         <v>192.8867116300491</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1625.172173432562</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1336.069306558206</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.069306558206</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.652136521245</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.652136521245</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y25" t="n">
-        <v>825.859557377715</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1521.866738172569</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3551.938043311329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3383.001860383422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3232.885220971086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.82636282546</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4499.140478652286</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T28" t="n">
-        <v>4277.373863221812</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U28" t="n">
-        <v>3988.270996347455</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3733.586508141569</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W28" t="n">
-        <v>3733.586508141569</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X28" t="n">
-        <v>3733.586508141569</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y28" t="n">
-        <v>3733.586508141569</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3378.079261668745</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C31" t="n">
-        <v>3378.079261668745</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D31" t="n">
-        <v>3378.079261668745</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>3378.079261668745</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4546.074276153233</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4324.307660722759</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>4035.204793848402</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V31" t="n">
-        <v>3780.520305642515</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>3780.520305642515</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>3780.520305642515</v>
+        <v>895.1493900894829</v>
       </c>
       <c r="Y31" t="n">
-        <v>3559.727726498985</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6706,22 +6706,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M32" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.8526275526848</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>949.2697975896453</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>659.8526275526848</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>659.8526275526848</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>659.8526275526848</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3348.500285847604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7019,7 +7019,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3700.063212537675</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>3531.127029609768</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>3381.010390197432</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>3329.187752068258</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4688.221265177249</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4399.118398302892</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4399.118398302892</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4109.701228265932</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3881.711677367914</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3881.711677367914</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600159</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2628.734306600802</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196469</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,22 +7253,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.713579808383</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3575.713579808383</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3425.596940396048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3277.683846813654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3277.683846813654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>4274.768765573601</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>4274.768765573601</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>3985.35159553664</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>3757.362044638623</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>3757.362044638623</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,52 +7411,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.171472577675</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1095.486984371788</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>806.069814334827</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>806.069814334827</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>806.069814334827</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1347.250803346364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1347.250803346364</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1057.833633309403</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1057.833633309403</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>837.0410541658733</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>71.00061210864436</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>148.4180109385406</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>136.2499899971296</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>272.8828616575871</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P23" t="n">
-        <v>283.3156027685499</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0304280899001</v>
+        <v>132.9990175570106</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>77.3579543087709</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>-3.747767335932152e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>173.2204606877384</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>226.768859619311</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>335.7869470069543</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>116.5656919961586</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>148.4180109385397</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>97.90453883123601</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>171.1377363163255</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.98431706305364</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>108.8373873069963</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.74723803501557</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>54.86407499498093</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>170.390547532238</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>21.59472895491359</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.579046671728818</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270128</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>49.04350619766609</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>64.70498037788315</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.59667697719146</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>95.12955089868666</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>50.32283309344777</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U43" t="n">
-        <v>184.3516918915124</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>181.4602293525149</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.3950852674</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="F2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="G2" t="n">
+        <v>754455.395085268</v>
+      </c>
+      <c r="H2" t="n">
+        <v>754455.3950852676</v>
+      </c>
+      <c r="I2" t="n">
+        <v>754455.3950852683</v>
+      </c>
+      <c r="J2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="K2" t="n">
+        <v>754455.3950852681</v>
+      </c>
+      <c r="L2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>754455.3950852676</v>
+      </c>
+      <c r="N2" t="n">
+        <v>754455.3950852676</v>
+      </c>
+      <c r="O2" t="n">
         <v>754455.3950852677</v>
       </c>
-      <c r="G2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="H2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="I2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="J2" t="n">
-        <v>754455.3950852673</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>754455.3950852678</v>
-      </c>
-      <c r="L2" t="n">
-        <v>754455.3950852674</v>
-      </c>
-      <c r="M2" t="n">
-        <v>754455.3950852674</v>
-      </c>
-      <c r="N2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>754455.3950852681</v>
-      </c>
-      <c r="P2" t="n">
-        <v>754455.3950852677</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="N4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401315</v>
+        <v>-76185.96276401303</v>
       </c>
       <c r="C6" t="n">
+        <v>513781.9164505318</v>
+      </c>
+      <c r="D6" t="n">
         <v>513781.9164505317</v>
       </c>
-      <c r="D6" t="n">
-        <v>513781.9164505316</v>
-      </c>
       <c r="E6" t="n">
-        <v>-87454.02948104277</v>
+        <v>-88125.98438330067</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.429610106</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101065</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101062</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101069</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197707</v>
+        <v>462828.2104175131</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101066</v>
       </c>
       <c r="L6" t="n">
-        <v>639923.3845123638</v>
+        <v>639251.4296101064</v>
       </c>
       <c r="M6" t="n">
-        <v>510281.0696734189</v>
+        <v>509609.1147711613</v>
       </c>
       <c r="N6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101062</v>
       </c>
       <c r="O6" t="n">
-        <v>639923.3845123644</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="P6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101064</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,19 +26752,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>122.1243940556983</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>10.52067551358112</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>116.1240855196265</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.48327928098149</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.7494097821752</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>128.2989123780233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9759840604714</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.8373423882884</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>53.14542677928246</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.5916199015163</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0.6124195427708976</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
     </row>
     <row r="36">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>526.5907265009765</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>687.3391267687674</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605947</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>535.0119762165015</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>780.9358625458062</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P23" t="n">
-        <v>682.0775889879218</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L26" t="n">
-        <v>866.6205424822323</v>
+        <v>588.5891319493429</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>585.41095519699</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>725.5222961006499</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37089,10 +37089,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37314,22 +37314,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>734.8218605075301</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>888.0887824198655</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>668.8675274090701</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37800,10 +37800,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>687.3391267687665</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3841611.275245128</v>
+        <v>3845016.766369576</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836242</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.54110646053131</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>133.6517655569937</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>79.17336298218197</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.60866929162337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.332975795529264</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.3244323150252</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>73.37668880174252</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.51033041214341</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>121.4542291304341</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.44691703576932</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.7115619691729</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>87.82592401634874</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534541</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249715</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>183.8751672983365</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249715</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.9899243971812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.510364625082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8796729742116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>71.4936743037169</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>134.4415385849321</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>159.8284100303891</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>135.0161832018922</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>116.2517048676528</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4509,7 +4509,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
         <v>667.8624625746712</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C5" t="n">
-        <v>558.825384592777</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D5" t="n">
-        <v>558.825384592777</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>558.825384592777</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>147.8394798031695</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>133.9160757417604</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.0972475937699</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.639626139993</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.8067350374723</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C13" t="n">
-        <v>506.8067350374723</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>218.2420739740855</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>218.2420739740855</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>218.2420739740855</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1253.788099626699</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>964.3709295897388</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>736.3813786917215</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.4551998677121</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551614</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.5269503710301</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431232</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1844.513605529782</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1555.410738655425</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1300.726250449538</v>
+        <v>1356.760929237905</v>
       </c>
       <c r="W16" t="n">
-        <v>1011.309080412578</v>
+        <v>1356.760929237905</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3195295145603</v>
+        <v>1128.771378339887</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.5269503710301</v>
+        <v>907.9787991963574</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5512,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.91817329694</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838525</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858352</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.904311342305</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5913,16 +5913,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838525</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858352</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.904311342305</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>722.4071781934688</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,13 +6071,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413808</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.8867116300491</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427196</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.866738172569</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844494</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6390,13 +6390,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,25 +6408,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413808</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
         <v>277.2094992786341</v>
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6539,37 +6539,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230348</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894829</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.7153769842187</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6706,13 +6706,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232731</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6903,7 +6903,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,34 +6922,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.9043113423046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>260.9043113423046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9043113423046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7219,7 +7219,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,10 +7253,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1505.797760815813</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>1216.380590778852</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>988.3910398808349</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7417,46 +7417,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1111.185181126942</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7657,10 +7657,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
   </sheetData>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>410.4190035206657</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476831</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>105.1996354507095</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>132.9990175570106</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>102.8529310510271</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-3.747767335932152e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11065,25 +11065,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>295.4822118493983</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.57157912859411</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1377363163255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23706,16 +23706,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>108.8373873069963</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>164.3117193074793</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.1421360569658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>34.70948605375824</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.1421360569658</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.59472895491359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.70498037788315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>108.3383058782204</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>91.26811680410506</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>92.30923329343892</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>151.5068151346988</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.332948484442</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.3950852676</v>
+        <v>754455.395085268</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852673</v>
       </c>
       <c r="G2" t="n">
         <v>754455.395085268</v>
       </c>
       <c r="H2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>754455.3950852677</v>
+      </c>
+      <c r="J2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="I2" t="n">
-        <v>754455.3950852683</v>
-      </c>
-      <c r="J2" t="n">
-        <v>754455.3950852675</v>
-      </c>
       <c r="K2" t="n">
-        <v>754455.3950852681</v>
+        <v>754455.3950852673</v>
       </c>
       <c r="L2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="M2" t="n">
         <v>754455.3950852676</v>
       </c>
       <c r="N2" t="n">
+        <v>754455.3950852673</v>
+      </c>
+      <c r="O2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="O2" t="n">
-        <v>754455.3950852677</v>
-      </c>
       <c r="P2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.395085268</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
@@ -26435,22 +26435,22 @@
         <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="M4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-76185.96276401303</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505318</v>
+        <v>513781.9164505317</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505317</v>
+        <v>513781.9164505315</v>
       </c>
       <c r="E6" t="n">
-        <v>-88125.98438330067</v>
+        <v>-87521.22497126822</v>
       </c>
       <c r="F6" t="n">
-        <v>639251.429610106</v>
+        <v>639856.1890221379</v>
       </c>
       <c r="G6" t="n">
-        <v>639251.4296101065</v>
+        <v>639856.1890221386</v>
       </c>
       <c r="H6" t="n">
-        <v>639251.4296101062</v>
+        <v>639856.1890221385</v>
       </c>
       <c r="I6" t="n">
-        <v>639251.4296101069</v>
+        <v>639856.1890221384</v>
       </c>
       <c r="J6" t="n">
-        <v>462828.2104175131</v>
+        <v>463432.9698295452</v>
       </c>
       <c r="K6" t="n">
-        <v>639251.4296101066</v>
+        <v>639856.1890221379</v>
       </c>
       <c r="L6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="M6" t="n">
-        <v>509609.1147711613</v>
+        <v>510213.8741831935</v>
       </c>
       <c r="N6" t="n">
-        <v>639251.4296101062</v>
+        <v>639856.1890221378</v>
       </c>
       <c r="O6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="P6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.1890221386</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26752,19 +26752,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>116.1240855196265</v>
+        <v>87.00133556471224</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>221.0312760636893</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>244.7494097821752</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.9759840604714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.14542677928246</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>1.0912804939463</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>93.93311345730839</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6124195427708976</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>866.0091179129979</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>897.0044190605947</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359025</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265653</v>
+        <v>442.39092200611</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859626</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>588.5891319493429</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>655.1547664639386</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493445</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>834.403327679625</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38025,13 +38025,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
